--- a/1.Tien do/Tiến do web car shop.xlsx
+++ b/1.Tien do/Tiến do web car shop.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ductri/Documents/hoc/Kiem thu va cong cu/Website-carShop/1.Tien do/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ductri/Documents/hoc/Kiem thu va cong cu/test/Website-CarShop/1.Tien do/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13703C8A-E477-654F-8850-E346B502B2A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712228F5-8047-0246-AE28-B9AA9F12D113}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{6BC86C83-9041-2344-B640-B29088C52744}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Tên Chức năng</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t xml:space="preserve">Thiết kế database , Tìm hiểu web </t>
+  </si>
+  <si>
+    <t>Update layout user</t>
   </si>
 </sst>
 </file>
@@ -94,18 +97,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32218D53-6CD9-EE41-ABBD-E2B916666F54}">
-  <dimension ref="C3:H7"/>
+  <dimension ref="C3:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -452,10 +456,10 @@
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>43525</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -466,28 +470,42 @@
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>43531</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5">
+        <v>43536</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
